--- a/biology/Histoire de la zoologie et de la botanique/Einar_Lönnberg/Einar_Lönnberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Einar_Lönnberg/Einar_Lönnberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Einar_L%C3%B6nnberg</t>
+          <t>Einar_Lönnberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axel Johan Einar Lönnberg est un naturaliste et un environnementaliste suédois, né le 24 décembre 1865 à Stockholm et mort le 21 novembre 1942 dans cette même ville.
 Son père, membre du parlement suédois et titulaire d’un doctorat en botanique, encourage sa passion par la faune et la flore. Lönnberg fait ses études à l’université d'Uppsala et obtient son Bachelor of Arts en 1887, son Master of Arts en 1890 et son doctorat en 1891.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Einar_L%C3%B6nnberg</t>
+          <t>Einar_Lönnberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Observations on certain Flat-fishes. Öfvers. k. Vetensk.-Akad. Förhandl. 1894 : 571-588 (1894)
 Notes on fishes collected in the Cameroons by Mr. Y. Sjöstedt. Öfversigt af Kongl. Vetenskaps-Akademiens Förhandlingar 1895 : 179-195 (1895)
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Einar_L%C3%B6nnberg</t>
+          <t>Einar_Lönnberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology,  Society for the study of amphibians and reptiles.
 Notices d'autorité : VIAF ISNI IdRef LCCN GND CiNii Israël NUKAT Suède Norvège Tchéquie WorldCat 
